--- a/xlsx/美国宪法_intext.xlsx
+++ b/xlsx/美国宪法_intext.xlsx
@@ -15,1935 +15,1929 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="641">
   <si>
     <t>美国宪法</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E5%BA%8F%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国宪法序言</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%80%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>美国宪法第一条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第二条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%89%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第三条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%9B%9B%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第四条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%94%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第五条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%85%AD%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第六条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%83%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第七条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AC%8A%E5%88%A9%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国权利法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%85%AB%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第八修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B9%9D%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第九修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%80%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第十一条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%8C%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第十二条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%89%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第十三条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第十四条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%94%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第十五条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%85%AD%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第十六条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%83%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第十七条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E5%85%AB%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十八修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B9%9D%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十九修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第二十条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%80%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第二十一条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BA%8C%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二十二修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%89%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第二十三条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E5%9B%9B%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第二十四条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BA%94%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第二十五条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E5%85%AD%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第二十六条修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%83%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二十七修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:US_Constitution_article_series</t>
+  </si>
+  <si>
+    <t>Template talk-US Constitution article series</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>费城</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%88%B6%E5%AE%AA%E4%BC%9A%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>美利坚合众国制宪会议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83</t>
+  </si>
+  <si>
+    <t>主权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6</t>
+  </si>
+  <si>
+    <t>联邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E4%BD%93%E5%88%B6</t>
+  </si>
+  <si>
+    <t>联邦体制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E6%9D%A1%E4%BE%8B</t>
+  </si>
+  <si>
+    <t>邦联条例</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E4%BD%93%E5%88%B6</t>
+  </si>
+  <si>
+    <t>邦联体制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国宪法历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>美国独立战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%86%E4%BC%9A%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>大陆会议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E7%A8%8E</t>
+  </si>
+  <si>
+    <t>关税</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E6%B3%A2%E5%88%A9%E6%96%AF</t>
+  </si>
+  <si>
+    <t>安那波利斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%BE%B7%E5%B2%9B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>罗德岛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新罕布什尔州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>华盛顿哥伦比亚特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E6%A1%A3%E6%A1%88%E9%A6%86</t>
+  </si>
+  <si>
+    <t>美国国家档案馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AD%BE%E7%BD%B2%E4%BA%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法签署人列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>特拉华州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E8%A5%BF%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>宾西法尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新泽西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E6%B2%BB%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佐治亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B6%85%E7%8B%84%E5%85%8B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>康涅狄克州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>马萨诸塞州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>马里兰州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南卡罗来那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>弗吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽约州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北卡罗来那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE</t>
+  </si>
+  <si>
+    <t>选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%9D%83%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>三权分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9D%83</t>
+  </si>
+  <si>
+    <t>立法权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>行政权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%9D%83</t>
+  </si>
+  <si>
+    <t>司法权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B8%A0</t>
+  </si>
+  <si>
+    <t>孟德斯鸠</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AB%96%E6%B3%95%E7%9A%84%E7%B2%BE%E7%A5%9E</t>
+  </si>
+  <si>
+    <t>论法的精神</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E8%A7%84</t>
+  </si>
+  <si>
+    <t>行政法规</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%BC%AF%E9%87%8C%E8%AF%89%E9%BA%A6%E8%BF%AA%E9%80%8A%E6%A1%88</t>
+  </si>
+  <si>
+    <t>马伯里诉麦迪逊案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%9D%E5%AE%AA%E5%AE%A1%E6%9F%A5%E6%9D%83</t>
+  </si>
+  <si>
+    <t>违宪审查权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%89%E5%B0%BC%E5%85%8B%E6%9D%BE%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国诉尼克松案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E4%B9%8B%E5%89%8D%E4%BA%BA%E4%BA%BA%E5%B9%B3%E7%AD%89</t>
+  </si>
+  <si>
+    <t>法律之前人人平等</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E4%BD%93%E5%88%B6</t>
+  </si>
+  <si>
+    <t>共和体制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E5%BA%8F%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法序言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9D%83</t>
+  </si>
+  <si>
+    <t>人权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%85%9A</t>
+  </si>
+  <si>
+    <t>联邦党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%80%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法第一条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国副总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>美国选举人团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%99%AA%E5%AE%A1%E5%9B%A2%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>陪审团制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%86%B2%E6%B3%95%E5%A2%9E%E4%BF%AE%E6%A2%9D%E6%96%87</t>
+  </si>
+  <si>
+    <t>中华民国宪法增修条文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第一修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>宗教自由</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%89%88%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>出版自由</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BA%E5%A8%81</t>
+  </si>
+  <si>
+    <t>示威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B8%89%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第三修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第四修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第五修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%AA%E5%AE%A1%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>大陪审团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%81%E7%94%A8</t>
+  </si>
+  <si>
+    <t>征用</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%85%AD%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第六修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%99%AA%E5%AE%A1%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>陪审团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B8%83%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第七修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十一修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%8C%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十二修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%89%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十三修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B6%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>奴隶制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十四修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E7%B1%8D</t>
+  </si>
+  <si>
+    <t>国籍</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9C%BE%E8%AD%B0%E5%93%A1</t>
+  </si>
+  <si>
+    <t>众议员</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%9B%E5%9B%BD%E7%BD%AA</t>
+  </si>
+  <si>
+    <t>叛国罪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%80%BA</t>
+  </si>
+  <si>
+    <t>国债</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91</t>
+  </si>
+  <si>
+    <t>公民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十五修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%85%AD%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十六修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%80%E5%BE%97%E7%A8%8E</t>
+  </si>
+  <si>
+    <t>所得税</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%83%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十七修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%8F%83%E8%AD%B0%E5%93%A1</t>
+  </si>
+  <si>
+    <t>联邦参议员</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E9%85%92%E4%BB%A4</t>
+  </si>
+  <si>
+    <t>禁酒令</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二十一修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E6%8A%95%E7%A5%A8%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>女性投票权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二十修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%89%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二十三修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>哥伦比亚特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE%E4%BA%BA%E7%A5%A8</t>
+  </si>
+  <si>
+    <t>选举人票</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二十四修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE%E6%9D%83</t>
+  </si>
+  <si>
+    <t>选举权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A0%AD%E7%A8%85</t>
+  </si>
+  <si>
+    <t>人头税</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二十五修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E5%85%AD%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二十六修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%BC%AF%E5%88%A9%E8%AF%89%E9%BA%A6%E8%BF%AA%E9%80%8A%E6%A1%88</t>
+  </si>
+  <si>
+    <t>马伯利诉麦迪逊案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%B7%B4%E9%A6%AC</t>
+  </si>
+  <si>
+    <t>欧巴马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%90%E6%96%87%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>成文宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>法国大革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
+  </si>
+  <si>
+    <t>第二次世界大战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%86%B2%E6%B3%95</t>
+  </si>
+  <si>
+    <t>日本宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E5%9F%83%E9%87%8C%E6%96%AF</t>
+  </si>
+  <si>
+    <t>约瑟夫·埃里斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
+  </si>
+  <si>
+    <t>维基文库</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%85%9A%E4%BA%BA%E6%96%87%E9%9B%86</t>
+  </si>
+  <si>
+    <t>联邦党人文集</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E8%A3%A1%E7%9A%84%E4%B8%89%E6%AC%8A%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>美国宪法里的三权分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%9C%88%E8%8A%B1%E5%8F%B7%E5%85%AC%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>五月花号公约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AD%BE%E7%BD%B2%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>美国宪法签署人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
+  </si>
+  <si>
+    <t>纽约市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美利坚合众国宪法</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Congressional_Apportionment_Amendment</t>
+  </si>
+  <si>
+    <t>en-Congressional Apportionment Amendment</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Titles_of_Nobility_Amendment</t>
+  </si>
+  <si>
+    <t>en-Titles of Nobility Amendment</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Corwin_Amendment</t>
+  </si>
+  <si>
+    <t>en-Corwin Amendment</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Child_Labor_Amendment</t>
+  </si>
+  <si>
+    <t>en-Child Labor Amendment</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%BB%BA%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>重建修正案</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_proposed_amendments_to_the_United_States_Constitution</t>
+  </si>
+  <si>
+    <t>en-List of proposed amendments to the United States Constitution</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Convention_to_propose_amendments_to_the_United_States_Constitution</t>
+  </si>
+  <si>
+    <t>en-Convention to propose amendments to the United States Constitution</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/State_ratifying_conventions</t>
+  </si>
+  <si>
+    <t>en-State ratifying conventions</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mount_Vernon_Conference</t>
+  </si>
+  <si>
+    <t>en-Mount Vernon Conference</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF%E6%9C%83%E8%AD%B0_(1786%E5%B9%B4)</t>
+  </si>
+  <si>
+    <t>安纳波利斯会议 (1786年)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%88%B6%E5%AE%AA%E4%BC%9A%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>美国制宪会议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E6%96%B9%E6%A1%88</t>
+  </si>
+  <si>
+    <t>弗吉尼亚方案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E6%96%B9%E6%A1%88</t>
+  </si>
+  <si>
+    <t>新泽西方案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B6%85%E7%8B%84%E6%A0%BC%E5%A6%A5%E5%8D%8F</t>
+  </si>
+  <si>
+    <t>康涅狄格妥协</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%88%86%E4%B9%8B%E4%B8%89%E5%A6%A5%E5%8D%8F</t>
+  </si>
+  <si>
+    <t>五分之三妥协</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E7%B4%80%E5%BF%B5%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>美国独立纪念馆</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Anti-Federalist_Papers</t>
+  </si>
+  <si>
+    <t>en-Anti-Federalist Papers</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%A6%A5%E5%8D%8F</t>
+  </si>
+  <si>
+    <t>马萨诸塞妥协</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Virginia_Ratifying_Convention</t>
+  </si>
+  <si>
+    <t>en-Virginia Ratifying Convention</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hillsborough_Convention</t>
+  </si>
+  <si>
+    <t>en-Hillsborough Convention</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A1%A3%E6%A1%88%E9%A6%86%E5%A4%A7%E6%A5%BC</t>
+  </si>
+  <si>
+    <t>国家档案馆大楼</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Charters_of_Freedom</t>
+  </si>
+  <si>
+    <t>en-Charters of Freedom</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Independence_Mall_(Philadelphia)</t>
+  </si>
+  <si>
+    <t>en-Independence Mall (Philadelphia)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Constitution_Day_(United_States)</t>
+  </si>
+  <si>
+    <t>en-Constitution Day (United States)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Constitution_Garden</t>
+  </si>
+  <si>
+    <t>en-Constitution Garden</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/National_Constitution_Center</t>
+  </si>
+  <si>
+    <t>en-National Constitution Center</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_Constitution_and_worldwide_influence</t>
+  </si>
+  <si>
+    <t>en-United States Constitution and worldwide influence</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>Template talk-美国索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国历史年表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>前哥伦布时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>十三殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国独立宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>美国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
+  </si>
+  <si>
+    <t>美国领土变迁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
+  </si>
+  <si>
+    <t>美国内战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>美国重建时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
+  </si>
+  <si>
+    <t>冷战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>朝鲜战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>非裔美国人民权运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>越南战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>波斯湾战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>反恐战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
+  </si>
+  <si>
+    <t>金融海啸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>美国人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>美国经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国债务上限历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>美国军事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>美国邮政署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>美国科学技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>美国法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国联邦机构列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国总统办事机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
+  </si>
+  <si>
+    <t>美国内阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
+  </si>
+  <si>
+    <t>美国联邦行政部门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>美国政府独立机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦地区法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国司法部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>联邦调查局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>美国情报体系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
+  </si>
+  <si>
+    <t>国家情报总监</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>中央情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>国防情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家地理空间情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家侦察局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家安全局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国空军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国陆军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海军陆战队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国海军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海岸警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>美国国民警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>第三党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>美国第51州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
+  </si>
+  <si>
+    <t>en-Political status of Puerto Rico</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>红州与蓝州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Purple_America</t>
+  </si>
+  <si>
+    <t>en-Purple America</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
+  </si>
+  <si>
+    <t>山姆大叔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>美国地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>县 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
+  </si>
+  <si>
+    <t>阿巴拉契亚山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>洛矶山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国国家公园列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>中大西洋地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国中西部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>北美大平原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西北部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国河流列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密西西比河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密苏里河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>科罗拉多河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>美国领土</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Agriculture in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
+  </si>
+  <si>
+    <t>美国梦</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
+  </si>
+  <si>
+    <t>en-United States federal budget</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>联邦储备系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国的工会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Social programs in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
+  </si>
+  <si>
+    <t>美国国债</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Taxation in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
+  </si>
+  <si>
+    <t>美国交通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国机场列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
+  </si>
+  <si>
+    <t>美国国道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>州际公路系统</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Unemployment in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
+  </si>
+  <si>
+    <t>华尔街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
+  </si>
+  <si>
+    <t>美国犯罪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
+  </si>
+  <si>
+    <t>美国卫生保健</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国监禁制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国的西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
+  </si>
+  <si>
+    <t>美国媒体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
+  </si>
+  <si>
+    <t>美国节日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>美国宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
+  </si>
+  <si>
+    <t>美国社会阶层</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国体育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
+  </si>
+  <si>
+    <t>美国LGBT权益</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
+  </si>
+  <si>
+    <t>美国同性婚姻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国家庭结构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>美国文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
+  </si>
+  <si>
+    <t>哈莱姆文艺复兴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>超验主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>垮掉的一代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
+  </si>
+  <si>
+    <t>美国建筑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国饮食文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>美国国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国民间音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国流行音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
+  </si>
+  <si>
+    <t>爵士乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
+  </si>
+  <si>
+    <t>美国电视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>美国电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
+  </si>
+  <si>
+    <t>好莱坞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>抽象表现主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国社会问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>美国平权行动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国例外主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
+  </si>
+  <si>
+    <t>反美情绪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国死刑制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国枪支政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
+  </si>
+  <si>
+    <t>美国枪枝暴力问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>美国医疗改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
+  </si>
+  <si>
+    <t>美墨边界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国的肥胖问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国种族主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>虚拟国际规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>法国国家图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美國憲法</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E5%BA%8F%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美國憲法序言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%80%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>美国宪法第一条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第二条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%89%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第三条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%9B%9B%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第四条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%94%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第五条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%85%AD%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第六条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%83%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第七条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AC%8A%E5%88%A9%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國權利法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%85%AB%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第八修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B9%9D%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第九修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第十修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%80%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第十一条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%8C%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第十二条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%89%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第十三条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第十四条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%94%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第十五条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%85%AD%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第十六条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%83%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第十七条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E5%85%AB%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第十八修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B9%9D%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第十九修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第二十条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%80%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第二十一条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BA%8C%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第二十二修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%89%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第二十三条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E5%9B%9B%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第二十四条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BA%94%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第二十五条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E5%85%AD%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第二十六条修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%83%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第二十七修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:US_Constitution_article_series</t>
-  </si>
-  <si>
-    <t>Template talk-US Constitution article series</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>费城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%88%B6%E5%AE%AA%E4%BC%9A%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>美利坚合众国制宪会议</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83</t>
-  </si>
-  <si>
-    <t>主权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6</t>
-  </si>
-  <si>
-    <t>联邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>联邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E4%BD%93%E5%88%B6</t>
-  </si>
-  <si>
-    <t>联邦体制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E6%9D%A1%E4%BE%8B</t>
-  </si>
-  <si>
-    <t>邦联条例</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E4%BD%93%E5%88%B6</t>
-  </si>
-  <si>
-    <t>邦联体制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国宪法历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>美国独立战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%86%E4%BC%9A%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>大陆会议</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E7%A8%8E</t>
-  </si>
-  <si>
-    <t>关税</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E6%B3%A2%E5%88%A9%E6%96%AF</t>
-  </si>
-  <si>
-    <t>安那波利斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%BE%B7%E5%B2%9B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>罗德岛州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新罕布什尔州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>华盛顿哥伦比亚特区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E6%A1%A3%E6%A1%88%E9%A6%86</t>
-  </si>
-  <si>
-    <t>美国国家档案馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AD%BE%E7%BD%B2%E4%BA%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法签署人列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>特拉华州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E8%A5%BF%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>宾西法尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新泽西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E6%B2%BB%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佐治亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B6%85%E7%8B%84%E5%85%8B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>康涅狄克州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>马萨诸塞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>马里兰州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南卡罗来那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>弗吉尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>纽约州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北卡罗来那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE</t>
-  </si>
-  <si>
-    <t>选举</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%9D%83%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>三权分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9D%83</t>
-  </si>
-  <si>
-    <t>立法权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>行政權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%9D%83</t>
-  </si>
-  <si>
-    <t>司法权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B8%A0</t>
-  </si>
-  <si>
-    <t>孟德斯鸠</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AB%96%E6%B3%95%E7%9A%84%E7%B2%BE%E7%A5%9E</t>
-  </si>
-  <si>
-    <t>論法的精神</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E8%A7%84</t>
-  </si>
-  <si>
-    <t>行政法规</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%BC%AF%E9%87%8C%E8%AF%89%E9%BA%A6%E8%BF%AA%E9%80%8A%E6%A1%88</t>
-  </si>
-  <si>
-    <t>马伯里诉麦迪逊案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%9D%E5%AE%AA%E5%AE%A1%E6%9F%A5%E6%9D%83</t>
-  </si>
-  <si>
-    <t>违宪审查权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%89%E5%B0%BC%E5%85%8B%E6%9D%BE%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国诉尼克松案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E4%B9%8B%E5%89%8D%E4%BA%BA%E4%BA%BA%E5%B9%B3%E7%AD%89</t>
-  </si>
-  <si>
-    <t>法律之前人人平等</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E4%BD%93%E5%88%B6</t>
-  </si>
-  <si>
-    <t>共和体制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E5%BA%8F%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法序言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9D%83</t>
-  </si>
-  <si>
-    <t>人权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%85%9A</t>
-  </si>
-  <si>
-    <t>联邦党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国权利法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%80%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法第一条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国国会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国副总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>美国选举人团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%AA%E5%AE%A1%E5%9B%A2%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>陪审团制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%86%B2%E6%B3%95%E5%A2%9E%E4%BF%AE%E6%A2%9D%E6%96%87</t>
-  </si>
-  <si>
-    <t>中華民國憲法增修條文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第一修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>宗教自由</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%89%88%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>出版自由</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BA%E5%A8%81</t>
-  </si>
-  <si>
-    <t>示威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第二修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B8%89%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第三修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第四修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第五修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%AA%E5%AE%A1%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>大陪审团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%81%E7%94%A8</t>
-  </si>
-  <si>
-    <t>征用</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%85%AD%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第六修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%AA%E5%AE%A1%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>陪审团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B8%83%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第七修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第十一修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%8C%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第十二修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%89%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第十三修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B6%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>奴隶制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第十四修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E7%B1%8D</t>
-  </si>
-  <si>
-    <t>国籍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9C%BE%E8%AD%B0%E5%93%A1</t>
-  </si>
-  <si>
-    <t>眾議員</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%9B%E5%9B%BD%E7%BD%AA</t>
-  </si>
-  <si>
-    <t>叛国罪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%80%BA</t>
-  </si>
-  <si>
-    <t>国债</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91</t>
-  </si>
-  <si>
-    <t>公民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第十五修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%85%AD%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第十六修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%80%E5%BE%97%E7%A8%8E</t>
-  </si>
-  <si>
-    <t>所得税</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%83%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第十七修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%8F%83%E8%AD%B0%E5%93%A1</t>
-  </si>
-  <si>
-    <t>聯邦參議員</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E9%85%92%E4%BB%A4</t>
-  </si>
-  <si>
-    <t>禁酒令</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第二十一修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E6%8A%95%E7%A5%A8%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>女性投票權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第二十修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%89%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第二十三修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>哥伦比亚特区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE%E4%BA%BA%E7%A5%A8</t>
-  </si>
-  <si>
-    <t>选举人票</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第二十四修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE%E6%9D%83</t>
-  </si>
-  <si>
-    <t>选举权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A0%AD%E7%A8%85</t>
-  </si>
-  <si>
-    <t>人頭稅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第二十五修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E5%85%AD%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第二十六修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%BC%AF%E5%88%A9%E8%AF%89%E9%BA%A6%E8%BF%AA%E9%80%8A%E6%A1%88</t>
-  </si>
-  <si>
-    <t>马伯利诉麦迪逊案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%B7%B4%E9%A6%AC</t>
-  </si>
-  <si>
-    <t>歐巴馬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%90%E6%96%87%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>成文宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>法国大革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
-  </si>
-  <si>
-    <t>第二次世界大战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%86%B2%E6%B3%95</t>
-  </si>
-  <si>
-    <t>日本憲法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E5%9F%83%E9%87%8C%E6%96%AF</t>
-  </si>
-  <si>
-    <t>约瑟夫·埃里斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
-  </si>
-  <si>
-    <t>维基文库</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%85%9A%E4%BA%BA%E6%96%87%E9%9B%86</t>
-  </si>
-  <si>
-    <t>联邦党人文集</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E8%A3%A1%E7%9A%84%E4%B8%89%E6%AC%8A%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>美國憲法裡的三權分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%9C%88%E8%8A%B1%E5%8F%B7%E5%85%AC%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>五月花号公约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AD%BE%E7%BD%B2%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美国宪法签署人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
-  </si>
-  <si>
-    <t>紐約市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美利坚合众国宪法</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Congressional_Apportionment_Amendment</t>
-  </si>
-  <si>
-    <t>en-Congressional Apportionment Amendment</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Titles_of_Nobility_Amendment</t>
-  </si>
-  <si>
-    <t>en-Titles of Nobility Amendment</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Corwin_Amendment</t>
-  </si>
-  <si>
-    <t>en-Corwin Amendment</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Child_Labor_Amendment</t>
-  </si>
-  <si>
-    <t>en-Child Labor Amendment</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%BB%BA%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>重建修正案</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_proposed_amendments_to_the_United_States_Constitution</t>
-  </si>
-  <si>
-    <t>en-List of proposed amendments to the United States Constitution</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Convention_to_propose_amendments_to_the_United_States_Constitution</t>
-  </si>
-  <si>
-    <t>en-Convention to propose amendments to the United States Constitution</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/State_ratifying_conventions</t>
-  </si>
-  <si>
-    <t>en-State ratifying conventions</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mount_Vernon_Conference</t>
-  </si>
-  <si>
-    <t>en-Mount Vernon Conference</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF%E6%9C%83%E8%AD%B0_(1786%E5%B9%B4)</t>
-  </si>
-  <si>
-    <t>安納波利斯會議 (1786年)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%88%B6%E5%AE%AA%E4%BC%9A%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>美国制宪会议</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E6%96%B9%E6%A1%88</t>
-  </si>
-  <si>
-    <t>弗吉尼亚方案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E6%96%B9%E6%A1%88</t>
-  </si>
-  <si>
-    <t>新泽西方案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B6%85%E7%8B%84%E6%A0%BC%E5%A6%A5%E5%8D%8F</t>
-  </si>
-  <si>
-    <t>康涅狄格妥协</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%88%86%E4%B9%8B%E4%B8%89%E5%A6%A5%E5%8D%8F</t>
-  </si>
-  <si>
-    <t>五分之三妥协</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E7%B4%80%E5%BF%B5%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>美國獨立紀念館</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Anti-Federalist_Papers</t>
-  </si>
-  <si>
-    <t>en-Anti-Federalist Papers</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%A6%A5%E5%8D%8F</t>
-  </si>
-  <si>
-    <t>马萨诸塞妥协</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Virginia_Ratifying_Convention</t>
-  </si>
-  <si>
-    <t>en-Virginia Ratifying Convention</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Hillsborough_Convention</t>
-  </si>
-  <si>
-    <t>en-Hillsborough Convention</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A1%A3%E6%A1%88%E9%A6%86%E5%A4%A7%E6%A5%BC</t>
-  </si>
-  <si>
-    <t>国家档案馆大楼</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Charters_of_Freedom</t>
-  </si>
-  <si>
-    <t>en-Charters of Freedom</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Independence_Mall_(Philadelphia)</t>
-  </si>
-  <si>
-    <t>en-Independence Mall (Philadelphia)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Constitution_Day_(United_States)</t>
-  </si>
-  <si>
-    <t>en-Constitution Day (United States)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Constitution_Garden</t>
-  </si>
-  <si>
-    <t>en-Constitution Garden</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/National_Constitution_Center</t>
-  </si>
-  <si>
-    <t>en-National Constitution Center</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_Constitution_and_worldwide_influence</t>
-  </si>
-  <si>
-    <t>en-United States Constitution and worldwide influence</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>Template talk-美国索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国历史年表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>前哥倫布時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>十三殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国独立宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>美国革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
-  </si>
-  <si>
-    <t>美國領土變遷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
-  </si>
-  <si>
-    <t>美国内战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>美国重建时期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>大萧条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
-  </si>
-  <si>
-    <t>冷战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>朝鲜战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>非裔美国人民权运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>越南战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>波斯灣戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>反恐战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
-  </si>
-  <si>
-    <t>金融海嘯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>美国人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>美国经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国债务上限历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>美国军事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>美國郵政署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>美国科学技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>美国法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國聯邦機構列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国总统办事机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
-  </si>
-  <si>
-    <t>美国内阁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
-  </si>
-  <si>
-    <t>美国联邦行政部门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>美國政府獨立機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦地区法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国司法部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>联邦调查局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>美國情報體系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
-  </si>
-  <si>
-    <t>國家情報總監</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中央情报局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>國防情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國國家地理空間情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家侦察局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家安全局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国空军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国陆军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海军陆战队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国海军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海岸警卫队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>美國國民警衛隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美国政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>共和党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>第三党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>美國第51州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
-  </si>
-  <si>
-    <t>en-Political status of Puerto Rico</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紅州與藍州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Purple_America</t>
-  </si>
-  <si>
-    <t>en-Purple America</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
-  </si>
-  <si>
-    <t>山姆大叔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>美国地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>县 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
-  </si>
-  <si>
-    <t>阿巴拉契亚山脉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>洛磯山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国国家公园列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新英格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>中大西洋地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國中西部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>北美大平原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西北部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国河流列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密西西比河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密苏里河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>科罗拉多河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>美国领土</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Agriculture in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
-  </si>
-  <si>
-    <t>美國夢</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
-  </si>
-  <si>
-    <t>en-United States federal budget</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>聯邦儲備系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國的工會</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Social programs in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
-  </si>
-  <si>
-    <t>美國國債</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Taxation in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
-  </si>
-  <si>
-    <t>美國交通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国机场列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
-  </si>
-  <si>
-    <t>美國國道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>州際公路系統</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Unemployment in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
-  </si>
-  <si>
-    <t>华尔街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
-  </si>
-  <si>
-    <t>美国犯罪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
-  </si>
-  <si>
-    <t>美国卫生保健</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国监禁制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国语言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国英语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国的西班牙语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
-  </si>
-  <si>
-    <t>美国媒体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美国人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
-  </si>
-  <si>
-    <t>美国节日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>美国宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
-  </si>
-  <si>
-    <t>美國社會階層</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
-  </si>
-  <si>
-    <t>美国梦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国体育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
-  </si>
-  <si>
-    <t>美國LGBT權益</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
-  </si>
-  <si>
-    <t>美国同性婚姻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国家庭结构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美国文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>美国文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
-  </si>
-  <si>
-    <t>哈莱姆文艺复兴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>超验主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>垮掉的一代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
-  </si>
-  <si>
-    <t>美国建筑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美國飲食文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>美国国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国民间音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国流行音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
-  </si>
-  <si>
-    <t>爵士乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
-  </si>
-  <si>
-    <t>美國電視</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>美国电影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
-  </si>
-  <si>
-    <t>好莱坞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>抽象表現主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国社会问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>美国平权行动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国例外主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
-  </si>
-  <si>
-    <t>反美情绪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国死刑制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美國槍支政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
-  </si>
-  <si>
-    <t>美國槍枝暴力問題</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>美國醫療改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
-  </si>
-  <si>
-    <t>美墨邊界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国的肥胖问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国种族主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>虚拟国际规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>法国国家图书馆</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2292,7 +2286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I346"/>
+  <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2346,7 +2340,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -2375,7 +2369,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -2404,7 +2398,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -2433,7 +2427,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -2462,7 +2456,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -2491,7 +2485,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -2520,7 +2514,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -2549,7 +2543,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -2578,7 +2572,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -2607,7 +2601,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -2636,7 +2630,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -2694,7 +2688,7 @@
         <v>28</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
@@ -2723,7 +2717,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -2752,7 +2746,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -2781,7 +2775,7 @@
         <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -2839,7 +2833,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -2868,7 +2862,7 @@
         <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
@@ -2897,7 +2891,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
@@ -2926,7 +2920,7 @@
         <v>44</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
@@ -2984,7 +2978,7 @@
         <v>48</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -3013,7 +3007,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H25" t="s">
         <v>4</v>
@@ -3042,7 +3036,7 @@
         <v>52</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -3071,7 +3065,7 @@
         <v>54</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -3129,7 +3123,7 @@
         <v>58</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
@@ -3158,7 +3152,7 @@
         <v>60</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
@@ -3187,7 +3181,7 @@
         <v>62</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -3216,7 +3210,7 @@
         <v>64</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -3245,7 +3239,7 @@
         <v>66</v>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -3274,7 +3268,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="n">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -3332,7 +3326,7 @@
         <v>72</v>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -3361,7 +3355,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -3390,7 +3384,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -3419,7 +3413,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
@@ -3448,7 +3442,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
@@ -3477,7 +3471,7 @@
         <v>82</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -3506,7 +3500,7 @@
         <v>84</v>
       </c>
       <c r="G42" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
@@ -3535,7 +3529,7 @@
         <v>86</v>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -3564,7 +3558,7 @@
         <v>88</v>
       </c>
       <c r="G44" t="n">
-        <v>187</v>
+        <v>2</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
@@ -3587,13 +3581,13 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -3616,10 +3610,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3651,7 +3645,7 @@
         <v>92</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
@@ -3709,7 +3703,7 @@
         <v>96</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -3767,7 +3761,7 @@
         <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
@@ -3790,13 +3784,13 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -3819,13 +3813,13 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -3854,7 +3848,7 @@
         <v>104</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -3883,7 +3877,7 @@
         <v>106</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
@@ -3912,7 +3906,7 @@
         <v>108</v>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
@@ -4231,7 +4225,7 @@
         <v>130</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -4260,7 +4254,7 @@
         <v>132</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
         <v>4</v>
@@ -4289,7 +4283,7 @@
         <v>134</v>
       </c>
       <c r="G69" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
@@ -4318,7 +4312,7 @@
         <v>136</v>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -4347,7 +4341,7 @@
         <v>138</v>
       </c>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -4405,7 +4399,7 @@
         <v>142</v>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -4434,7 +4428,7 @@
         <v>144</v>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
@@ -4492,7 +4486,7 @@
         <v>148</v>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -4608,7 +4602,7 @@
         <v>156</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -4637,7 +4631,7 @@
         <v>158</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -4753,7 +4747,7 @@
         <v>166</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -4782,7 +4776,7 @@
         <v>168</v>
       </c>
       <c r="G86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -4808,10 +4802,10 @@
         <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -4834,13 +4828,13 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
       </c>
-      <c r="F88" t="s">
-        <v>172</v>
-      </c>
       <c r="G88" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -4863,13 +4857,13 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
       </c>
-      <c r="F89" t="s">
-        <v>174</v>
-      </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -4892,13 +4886,13 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
       </c>
-      <c r="F90" t="s">
-        <v>176</v>
-      </c>
       <c r="G90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -4921,13 +4915,13 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
       </c>
-      <c r="F91" t="s">
-        <v>178</v>
-      </c>
       <c r="G91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -4950,13 +4944,13 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
       </c>
-      <c r="F92" t="s">
-        <v>180</v>
-      </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -4979,13 +4973,13 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -5008,10 +5002,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="F94" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5037,10 +5031,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5066,13 +5060,13 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -5095,13 +5089,13 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" t="s">
         <v>185</v>
       </c>
-      <c r="F97" t="s">
-        <v>186</v>
-      </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -5124,10 +5118,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5182,13 +5176,13 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -5211,13 +5205,13 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -5240,10 +5234,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5298,10 +5292,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5327,13 +5321,13 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="F105" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>369</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -5356,13 +5350,13 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F106" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G106" t="n">
-        <v>369</v>
+        <v>1</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -5385,13 +5379,13 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F107" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
@@ -5414,13 +5408,13 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F108" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -5443,13 +5437,13 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F109" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -5472,13 +5466,13 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F110" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G110" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -5501,13 +5495,13 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F111" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G111" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -5530,13 +5524,13 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F112" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G112" t="n">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -5559,13 +5553,13 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F113" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G113" t="n">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -5588,10 +5582,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F114" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5617,13 +5611,13 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F115" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -5646,13 +5640,13 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F116" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G116" t="n">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -5675,13 +5669,13 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F117" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G117" t="n">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -5704,13 +5698,13 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>217</v>
+        <v>23</v>
       </c>
       <c r="F118" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="G118" t="n">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -5739,7 +5733,7 @@
         <v>26</v>
       </c>
       <c r="G119" t="n">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -5768,7 +5762,7 @@
         <v>28</v>
       </c>
       <c r="G120" t="n">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -5791,13 +5785,13 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="G121" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -5820,13 +5814,13 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F122" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G122" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -5849,13 +5843,13 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F123" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G123" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -5878,13 +5872,13 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F124" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G124" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -5907,13 +5901,13 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F125" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -5936,13 +5930,13 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F126" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G126" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -5965,10 +5959,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F127" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5994,13 +5988,13 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F128" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -6023,13 +6017,13 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F129" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -6052,13 +6046,13 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F130" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -6081,13 +6075,13 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F131" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G131" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -6110,13 +6104,13 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F132" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G132" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -6139,13 +6133,13 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F133" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G133" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -6168,13 +6162,13 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F134" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -6197,13 +6191,13 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F135" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G135" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -6226,13 +6220,13 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>247</v>
+        <v>43</v>
       </c>
       <c r="F136" t="s">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -6255,13 +6249,13 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="G137" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -6284,10 +6278,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F138" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6313,13 +6307,13 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="F139" t="s">
-        <v>252</v>
+        <v>46</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -6342,13 +6336,13 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>47</v>
+        <v>249</v>
       </c>
       <c r="F140" t="s">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="G140" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -6371,13 +6365,13 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F141" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -6400,13 +6394,13 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F142" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G142" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -6429,10 +6423,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="F143" t="s">
-        <v>252</v>
+        <v>52</v>
       </c>
       <c r="G143" t="n">
         <v>9</v>
@@ -6458,13 +6452,13 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>53</v>
+        <v>253</v>
       </c>
       <c r="F144" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="G144" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -6487,13 +6481,13 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F145" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G145" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -6516,13 +6510,13 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F146" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -6545,13 +6539,13 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F147" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -6574,13 +6568,13 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F148" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G148" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -6603,13 +6597,13 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F149" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G149" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -6632,13 +6626,13 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F150" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H150" t="s">
         <v>4</v>
@@ -6661,10 +6655,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F151" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G151" t="n">
         <v>6</v>
@@ -6690,13 +6684,13 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>271</v>
+        <v>61</v>
       </c>
       <c r="F152" t="s">
-        <v>272</v>
+        <v>62</v>
       </c>
       <c r="G152" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -6719,13 +6713,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>63</v>
+        <v>269</v>
       </c>
       <c r="F153" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="G153" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6748,10 +6742,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F154" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6777,13 +6771,13 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F155" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -6806,13 +6800,13 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F156" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -6835,13 +6829,13 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F157" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -6864,13 +6858,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F158" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -6893,10 +6887,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F159" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6922,13 +6916,13 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F160" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -6951,13 +6945,13 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F161" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -6980,13 +6974,13 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F162" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -7009,10 +7003,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F163" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7038,10 +7032,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F164" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7067,13 +7061,13 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F165" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -7096,13 +7090,13 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F166" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G166" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -7125,13 +7119,13 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>299</v>
+        <v>186</v>
       </c>
       <c r="F167" t="s">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G167" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -7154,13 +7148,13 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>189</v>
+        <v>297</v>
       </c>
       <c r="F168" t="s">
-        <v>190</v>
+        <v>298</v>
       </c>
       <c r="G168" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
@@ -7183,10 +7177,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F169" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7212,10 +7206,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F170" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7241,10 +7235,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F171" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7270,10 +7264,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="F172" t="s">
-        <v>308</v>
+        <v>44</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7299,10 +7293,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="F173" t="s">
-        <v>46</v>
+        <v>306</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7328,10 +7322,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F174" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7357,10 +7351,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F175" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7386,10 +7380,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F176" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7415,10 +7409,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F177" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7444,10 +7438,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F178" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7473,10 +7467,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F179" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7502,10 +7496,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F180" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7531,10 +7525,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F181" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7560,10 +7554,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F182" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7589,10 +7583,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F183" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7618,10 +7612,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>329</v>
+        <v>107</v>
       </c>
       <c r="F184" t="s">
-        <v>330</v>
+        <v>108</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7647,10 +7641,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>109</v>
+        <v>327</v>
       </c>
       <c r="F185" t="s">
-        <v>110</v>
+        <v>328</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7676,10 +7670,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F186" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7705,10 +7699,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F187" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7734,10 +7728,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F188" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7763,10 +7757,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F189" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7792,10 +7786,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F190" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7821,10 +7815,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F191" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7850,10 +7844,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F192" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7879,10 +7873,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F193" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7908,10 +7902,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F194" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7937,10 +7931,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F195" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7966,10 +7960,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F196" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7995,13 +7989,13 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F197" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -8024,13 +8018,13 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F198" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G198" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -8053,13 +8047,13 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F199" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G199" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -8082,10 +8076,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F200" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8111,10 +8105,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F201" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8140,10 +8134,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F202" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8169,10 +8163,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F203" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8198,10 +8192,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F204" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8227,10 +8221,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F205" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8256,10 +8250,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F206" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8285,10 +8279,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F207" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8314,10 +8308,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F208" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8343,10 +8337,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F209" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8372,10 +8366,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F210" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8401,10 +8395,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F211" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8430,10 +8424,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F212" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8459,10 +8453,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F213" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8488,10 +8482,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F214" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8517,13 +8511,13 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F215" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -8546,13 +8540,13 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F216" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G216" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -8575,13 +8569,13 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F217" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G217" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -8604,13 +8598,13 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F218" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -8633,13 +8627,13 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F219" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -8662,10 +8656,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F220" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8691,13 +8685,13 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F221" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -8720,13 +8714,13 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F222" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G222" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -8749,13 +8743,13 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>405</v>
+        <v>172</v>
       </c>
       <c r="F223" t="s">
-        <v>406</v>
+        <v>173</v>
       </c>
       <c r="G223" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -8778,13 +8772,13 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F224" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G224" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
@@ -8807,13 +8801,13 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>181</v>
+        <v>403</v>
       </c>
       <c r="F225" t="s">
-        <v>182</v>
+        <v>404</v>
       </c>
       <c r="G225" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -8836,13 +8830,13 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>407</v>
+        <v>135</v>
       </c>
       <c r="F226" t="s">
-        <v>408</v>
+        <v>136</v>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -8865,13 +8859,13 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>137</v>
+        <v>405</v>
       </c>
       <c r="F227" t="s">
-        <v>138</v>
+        <v>406</v>
       </c>
       <c r="G227" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -8894,10 +8888,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F228" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8923,10 +8917,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F229" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8952,10 +8946,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F230" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8981,13 +8975,13 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F231" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -9010,13 +9004,13 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>417</v>
+        <v>133</v>
       </c>
       <c r="F232" t="s">
-        <v>418</v>
+        <v>134</v>
       </c>
       <c r="G232" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -9039,13 +9033,13 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F233" t="s">
-        <v>136</v>
+        <v>416</v>
       </c>
       <c r="G233" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -9068,10 +9062,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F234" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9097,10 +9091,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F235" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9126,10 +9120,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F236" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9155,13 +9149,13 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F237" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H237" t="s">
         <v>4</v>
@@ -9184,13 +9178,13 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F238" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G238" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H238" t="s">
         <v>4</v>
@@ -9213,10 +9207,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F239" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9242,10 +9236,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F240" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9271,10 +9265,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F241" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9300,10 +9294,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F242" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9329,10 +9323,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F243" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9358,10 +9352,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F244" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9387,10 +9381,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F245" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9416,10 +9410,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F246" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9445,13 +9439,13 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F247" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -9474,13 +9468,13 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F248" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -9503,10 +9497,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F249" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9532,13 +9526,13 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F250" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -9561,13 +9555,13 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>453</v>
+        <v>180</v>
       </c>
       <c r="F251" t="s">
-        <v>454</v>
+        <v>181</v>
       </c>
       <c r="G251" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -9590,10 +9584,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>183</v>
+        <v>451</v>
       </c>
       <c r="F252" t="s">
-        <v>184</v>
+        <v>452</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9619,10 +9613,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F253" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9648,10 +9642,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F254" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9677,10 +9671,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F255" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9706,10 +9700,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F256" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9735,10 +9729,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F257" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9764,10 +9758,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F258" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9793,10 +9787,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F259" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9822,10 +9816,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F260" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9851,10 +9845,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F261" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9880,13 +9874,13 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F262" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -9909,13 +9903,13 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F263" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G263" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -9938,10 +9932,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F264" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9967,10 +9961,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F265" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9996,10 +9990,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F266" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10025,10 +10019,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F267" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10054,10 +10048,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F268" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10083,10 +10077,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F269" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10112,10 +10106,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F270" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10141,10 +10135,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F271" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10170,10 +10164,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F272" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10199,10 +10193,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F273" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10228,10 +10222,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F274" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10257,10 +10251,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F275" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10286,10 +10280,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F276" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10315,10 +10309,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F277" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10344,10 +10338,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F278" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10373,10 +10367,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F279" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10402,13 +10396,13 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F280" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -10431,13 +10425,13 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F281" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -10460,10 +10454,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F282" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10489,10 +10483,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F283" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10518,10 +10512,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F284" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10547,10 +10541,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F285" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10576,10 +10570,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F286" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10605,10 +10599,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F287" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10634,10 +10628,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F288" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10663,10 +10657,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F289" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10692,10 +10686,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F290" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10721,10 +10715,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F291" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10750,10 +10744,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F292" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10779,10 +10773,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F293" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10808,10 +10802,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F294" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10837,10 +10831,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F295" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10866,13 +10860,13 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F296" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G296" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -10895,13 +10889,13 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F297" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G297" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -10924,13 +10918,13 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F298" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G298" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -10953,13 +10947,13 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F299" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G299" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -10982,10 +10976,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F300" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11011,10 +11005,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F301" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11040,10 +11034,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F302" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11069,10 +11063,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F303" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11098,13 +11092,13 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F304" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -11127,10 +11121,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F305" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G305" t="n">
         <v>4</v>
@@ -11156,13 +11150,13 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F306" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G306" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -11185,10 +11179,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F307" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11214,10 +11208,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F308" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11243,10 +11237,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F309" t="s">
-        <v>568</v>
+        <v>512</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11272,10 +11266,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F310" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11301,10 +11295,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F311" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11330,10 +11324,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F312" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11359,10 +11353,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F313" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11388,13 +11382,13 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F314" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G314" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -11417,13 +11411,13 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F315" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G315" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -11446,10 +11440,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F316" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11475,10 +11469,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F317" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11504,10 +11498,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F318" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11533,10 +11527,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F319" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11562,10 +11556,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F320" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11591,10 +11585,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F321" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11620,13 +11614,13 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F322" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G322" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -11649,13 +11643,13 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F323" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G323" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -11678,10 +11672,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F324" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11707,10 +11701,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F325" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11736,13 +11730,13 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F326" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -11765,13 +11759,13 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F327" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -11794,10 +11788,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F328" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11823,10 +11817,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F329" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11852,13 +11846,13 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F330" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -11881,13 +11875,13 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F331" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -11910,10 +11904,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F332" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -11939,10 +11933,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F333" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -11968,10 +11962,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F334" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -11997,10 +11991,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F335" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12026,13 +12020,13 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F336" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -12055,13 +12049,13 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F337" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -12084,10 +12078,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F338" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12113,10 +12107,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F339" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12142,10 +12136,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F340" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12171,13 +12165,13 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F341" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G341" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -12200,13 +12194,13 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F342" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G342" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -12229,10 +12223,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F343" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12258,10 +12252,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F344" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12287,10 +12281,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F345" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12316,18 +12310,47 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F346" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G346" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
       </c>
       <c r="I346" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>0</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1</v>
+      </c>
+      <c r="D347" t="n">
+        <v>346</v>
+      </c>
+      <c r="E347" t="s">
+        <v>638</v>
+      </c>
+      <c r="F347" t="s">
+        <v>640</v>
+      </c>
+      <c r="G347" t="n">
+        <v>4</v>
+      </c>
+      <c r="H347" t="s">
+        <v>4</v>
+      </c>
+      <c r="I347" t="n">
         <v>3</v>
       </c>
     </row>
